--- a/sj打卡.xlsx
+++ b/sj打卡.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zz/Desktop/learn py/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B10D4E-CC2D-E84D-8044-7FC282FA8342}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01299AF1-552A-6445-BFC2-482694DC01B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="2460" windowWidth="19100" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="2400" windowWidth="19100" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="87">
   <si>
     <t>廿八</t>
   </si>
@@ -612,30 +612,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>十二</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="10"/>
-        <rFont val="楷体_GB2312"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（小寒）</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>04 最长公共前缀</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -699,6 +675,14 @@
       </rPr>
       <t>整数反转</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>05 有效的括号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>06 罗马数字转整数。             07 实现strStr</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -938,7 +922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1146,6 +1130,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="57" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1437,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -1450,15 +1437,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="40" customHeight="1">
-      <c r="A1" s="71">
+      <c r="A1" s="72">
         <v>43831</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:7" ht="25" customHeight="1">
       <c r="A2" s="21" t="s">
@@ -1512,13 +1499,13 @@
         <v>29</v>
       </c>
       <c r="E4" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>85</v>
-      </c>
       <c r="G4" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="25" customHeight="1">
@@ -1545,11 +1532,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="115" customHeight="1">
-      <c r="A6" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>13</v>
+      <c r="A6" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>86</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>14</v>
@@ -1707,15 +1694,15 @@
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="40" customHeight="1">
-      <c r="A14" s="72">
+      <c r="A14" s="73">
         <v>43862</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
     </row>
     <row r="15" spans="1:7" ht="25" customHeight="1">
       <c r="A15" s="21" t="s">
@@ -1956,15 +1943,15 @@
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" ht="40" customHeight="1">
-      <c r="A27" s="74">
+      <c r="A27" s="75">
         <v>43891</v>
       </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
     </row>
     <row r="28" spans="1:7" ht="25" customHeight="1">
       <c r="A28" s="27" t="s">
@@ -2222,15 +2209,15 @@
       <c r="G40" s="59"/>
     </row>
     <row r="41" spans="1:7" s="1" customFormat="1" ht="40" customHeight="1">
-      <c r="A41" s="72">
+      <c r="A41" s="73">
         <v>43922</v>
       </c>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
     </row>
     <row r="42" spans="1:7" ht="25" customHeight="1">
       <c r="A42" s="27" t="s">
@@ -2475,15 +2462,15 @@
       <c r="G53" s="13"/>
     </row>
     <row r="54" spans="1:16" s="1" customFormat="1" ht="40" customHeight="1">
-      <c r="A54" s="72">
+      <c r="A54" s="73">
         <v>43952</v>
       </c>
-      <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
     </row>
     <row r="55" spans="1:16" ht="25" customHeight="1">
       <c r="A55" s="27" t="s">
@@ -2729,15 +2716,15 @@
       <c r="G66" s="16"/>
     </row>
     <row r="67" spans="1:7" ht="40" customHeight="1">
-      <c r="A67" s="72">
+      <c r="A67" s="73">
         <v>43983</v>
       </c>
-      <c r="B67" s="72"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="72"/>
+      <c r="B67" s="73"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="73"/>
+      <c r="F67" s="73"/>
+      <c r="G67" s="73"/>
     </row>
     <row r="68" spans="1:7" ht="25" customHeight="1">
       <c r="A68" s="27" t="s">
@@ -2977,15 +2964,15 @@
       <c r="G79" s="16"/>
     </row>
     <row r="80" spans="1:7" ht="40" customHeight="1">
-      <c r="A80" s="73">
+      <c r="A80" s="74">
         <v>44013</v>
       </c>
-      <c r="B80" s="73"/>
-      <c r="C80" s="73"/>
-      <c r="D80" s="73"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="73"/>
-      <c r="G80" s="73"/>
+      <c r="B80" s="74"/>
+      <c r="C80" s="74"/>
+      <c r="D80" s="74"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="74"/>
+      <c r="G80" s="74"/>
     </row>
     <row r="81" spans="1:7" ht="25" customHeight="1">
       <c r="A81" s="27" t="s">
@@ -3234,15 +3221,15 @@
       <c r="G92" s="13"/>
     </row>
     <row r="93" spans="1:7" ht="40" customHeight="1">
-      <c r="A93" s="72">
+      <c r="A93" s="73">
         <v>44044</v>
       </c>
-      <c r="B93" s="72"/>
-      <c r="C93" s="72"/>
-      <c r="D93" s="72"/>
-      <c r="E93" s="72"/>
-      <c r="F93" s="72"/>
-      <c r="G93" s="72"/>
+      <c r="B93" s="73"/>
+      <c r="C93" s="73"/>
+      <c r="D93" s="73"/>
+      <c r="E93" s="73"/>
+      <c r="F93" s="73"/>
+      <c r="G93" s="73"/>
     </row>
     <row r="94" spans="1:7" ht="25" customHeight="1">
       <c r="A94" s="27" t="s">
@@ -3500,15 +3487,15 @@
       <c r="G106" s="64"/>
     </row>
     <row r="107" spans="1:7" ht="40" customHeight="1">
-      <c r="A107" s="72">
+      <c r="A107" s="73">
         <v>44075</v>
       </c>
-      <c r="B107" s="72"/>
-      <c r="C107" s="72"/>
-      <c r="D107" s="72"/>
-      <c r="E107" s="72"/>
-      <c r="F107" s="72"/>
-      <c r="G107" s="72"/>
+      <c r="B107" s="73"/>
+      <c r="C107" s="73"/>
+      <c r="D107" s="73"/>
+      <c r="E107" s="73"/>
+      <c r="F107" s="73"/>
+      <c r="G107" s="73"/>
     </row>
     <row r="108" spans="1:7" ht="25" customHeight="1">
       <c r="A108" s="27" t="s">
@@ -3748,15 +3735,15 @@
       <c r="G119" s="16"/>
     </row>
     <row r="120" spans="1:7" ht="40" customHeight="1">
-      <c r="A120" s="73">
+      <c r="A120" s="74">
         <v>44105</v>
       </c>
-      <c r="B120" s="73"/>
-      <c r="C120" s="73"/>
-      <c r="D120" s="73"/>
-      <c r="E120" s="73"/>
-      <c r="F120" s="73"/>
-      <c r="G120" s="73"/>
+      <c r="B120" s="74"/>
+      <c r="C120" s="74"/>
+      <c r="D120" s="74"/>
+      <c r="E120" s="74"/>
+      <c r="F120" s="74"/>
+      <c r="G120" s="74"/>
     </row>
     <row r="121" spans="1:7" ht="25" customHeight="1">
       <c r="A121" s="27" t="s">
@@ -4000,15 +3987,15 @@
       <c r="G132" s="4"/>
     </row>
     <row r="133" spans="1:7" ht="40" customHeight="1">
-      <c r="A133" s="73">
+      <c r="A133" s="74">
         <v>44136</v>
       </c>
-      <c r="B133" s="73"/>
-      <c r="C133" s="73"/>
-      <c r="D133" s="73"/>
-      <c r="E133" s="73"/>
-      <c r="F133" s="73"/>
-      <c r="G133" s="73"/>
+      <c r="B133" s="74"/>
+      <c r="C133" s="74"/>
+      <c r="D133" s="74"/>
+      <c r="E133" s="74"/>
+      <c r="F133" s="74"/>
+      <c r="G133" s="74"/>
     </row>
     <row r="134" spans="1:7" ht="25" customHeight="1">
       <c r="A134" s="27" t="s">
@@ -4262,15 +4249,15 @@
       <c r="G146" s="68"/>
     </row>
     <row r="147" spans="1:7" ht="40" customHeight="1">
-      <c r="A147" s="73">
+      <c r="A147" s="74">
         <v>44166</v>
       </c>
-      <c r="B147" s="73"/>
-      <c r="C147" s="73"/>
-      <c r="D147" s="73"/>
-      <c r="E147" s="73"/>
-      <c r="F147" s="73"/>
-      <c r="G147" s="73"/>
+      <c r="B147" s="74"/>
+      <c r="C147" s="74"/>
+      <c r="D147" s="74"/>
+      <c r="E147" s="74"/>
+      <c r="F147" s="74"/>
+      <c r="G147" s="74"/>
     </row>
     <row r="148" spans="1:7" ht="25" customHeight="1">
       <c r="A148" s="27" t="s">

--- a/sj打卡.xlsx
+++ b/sj打卡.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zz/Desktop/learn py/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01299AF1-552A-6445-BFC2-482694DC01B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7E0095-98B1-A34C-93CC-02CB96603FA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="2400" windowWidth="19100" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6500" yWindow="2400" windowWidth="19100" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="88">
   <si>
     <t>廿八</t>
   </si>
@@ -683,6 +683,10 @@
   </si>
   <si>
     <t>06 罗马数字转整数。             07 实现strStr</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>08 最后一个单词的长度</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1424,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -1539,7 +1543,7 @@
         <v>86</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>30</v>

--- a/sj打卡.xlsx
+++ b/sj打卡.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zz/Desktop/learn py/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7E0095-98B1-A34C-93CC-02CB96603FA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A490C403-B16A-9E45-8F74-E9546B620845}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6500" yWindow="2400" windowWidth="19100" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6500" yWindow="2360" windowWidth="19100" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="91">
   <si>
     <t>廿八</t>
   </si>
@@ -687,6 +687,18 @@
   </si>
   <si>
     <t>08 最后一个单词的长度</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>09 删除排序数组中的重复项</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 移除元素</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 搜索插入位置</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1428,11 +1440,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="5" width="38.6640625" style="5" customWidth="1"/>
     <col min="6" max="6" width="38.6640625" style="4" customWidth="1"/>
@@ -1549,7 +1561,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>16</v>
@@ -1583,10 +1595,10 @@
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="115" customHeight="1">
       <c r="A8" s="23" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>20</v>

--- a/sj打卡.xlsx
+++ b/sj打卡.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zz/Desktop/learn py/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A490C403-B16A-9E45-8F74-E9546B620845}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AA1EB2-8D0B-6E41-AE08-4C8E82200E0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6500" yWindow="2360" windowWidth="19100" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -698,7 +698,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>11 搜索插入位置</t>
+    <t>11 搜索插入位置              12 合并两个有序数组</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1440,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
